--- a/web/backend/Python-services/src/data/xlsx/sample/FAMS.xlsx
+++ b/web/backend/Python-services/src/data/xlsx/sample/FAMS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555493CF-9A72-4544-9993-3861BCE5ADB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56397E-B735-462A-829D-85F6CCBB4A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Họ và Tên</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Bằng cấp</t>
+  </si>
+  <si>
+    <t>Số lượng tiết học có thể dạy cho 1 tuần</t>
   </si>
 </sst>
 </file>
@@ -130,10 +133,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,15 +509,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,6 +541,9 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
